--- a/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
+++ b/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCE2FF-2836-42C5-924C-A9313646C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -200,11 +201,17 @@
   <si>
     <t>5/15 - 6/6/2023</t>
   </si>
+  <si>
+    <t>9/1-18/2023</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -580,17 +587,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,6 +604,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,7 +1137,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1180,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1244,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1304,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1370,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1433,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1531,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1590,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1655,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1698,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1773,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1959,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2025,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2083,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2149,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2205,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2280,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2323,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2389,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2445,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2524,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2526,7 +2533,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2534,25 +2541,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2564,25 +2571,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2889,7 +2896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2899,7 +2906,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2907,34 +2914,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2946,16 +2953,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2964,16 +2971,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2984,18 +2991,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3003,7 +3010,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3016,24 +3023,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3077,7 +3084,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>61.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3087,12 +3094,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>86.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3114,7 +3121,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3134,7 +3141,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3154,7 +3161,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3174,7 +3181,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3194,7 +3201,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3214,7 +3221,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3234,7 +3241,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3254,7 +3261,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3274,7 +3281,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3294,7 +3301,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3314,7 +3321,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3334,7 +3341,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3358,7 +3365,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -3376,7 +3383,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3396,7 +3403,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3416,7 +3423,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3436,7 +3443,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3456,7 +3463,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3476,7 +3483,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3496,7 +3503,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3516,7 +3523,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3536,7 +3543,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3556,7 +3563,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3576,7 +3583,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3620,7 +3627,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3678,7 +3685,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3698,7 +3705,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3718,7 +3725,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3738,7 +3745,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3778,7 +3785,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3798,7 +3805,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3818,7 +3825,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3838,7 +3845,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3858,7 +3865,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3882,7 +3889,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>46</v>
       </c>
@@ -3900,7 +3907,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3920,7 +3927,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3940,7 +3947,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -3960,7 +3967,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -3980,7 +3987,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4000,7 +4007,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4020,7 +4027,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4040,7 +4047,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4060,7 +4067,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4080,7 +4087,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4100,7 +4107,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4120,7 +4127,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4144,7 +4151,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>47</v>
       </c>
@@ -4162,7 +4169,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4182,7 +4189,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4202,7 +4209,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4222,7 +4229,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4242,7 +4249,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4262,7 +4269,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4282,7 +4289,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4302,7 +4309,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4322,7 +4329,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4342,7 +4349,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4362,7 +4369,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4382,7 +4389,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4406,7 +4413,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>51</v>
       </c>
@@ -4424,9 +4431,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4444,9 +4451,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4464,9 +4471,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4484,9 +4491,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4504,9 +4511,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4524,9 +4531,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4544,9 +4551,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4564,9 +4571,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4584,9 +4591,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4604,25 +4611,27 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>0.37499999999999994</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>0.37499999999999994</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4638,7 +4647,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4654,7 +4663,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4670,7 +4679,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4686,7 +4695,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4702,7 +4711,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4718,7 +4727,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4734,7 +4743,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4750,7 +4759,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4766,7 +4775,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4782,7 +4791,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4798,7 +4807,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4814,7 +4823,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4830,7 +4839,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4846,7 +4855,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4862,7 +4871,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4878,7 +4887,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4894,7 +4903,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4910,7 +4919,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4926,7 +4935,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4942,7 +4951,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4958,7 +4967,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4974,7 +4983,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4990,7 +4999,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5006,7 +5015,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5022,7 +5031,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5038,7 +5047,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5054,7 +5063,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5070,7 +5079,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5086,7 +5095,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5102,7 +5111,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5118,7 +5127,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5134,7 +5143,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5150,7 +5159,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5166,7 +5175,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5182,7 +5191,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -5200,23 +5209,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5239,34 +5248,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" activePane="bottomLeft"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5278,16 +5287,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5296,16 +5305,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5316,18 +5325,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5335,7 +5344,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5348,24 +5357,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5419,12 +5428,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>108.004</v>
+        <v>95.004000000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48">
         <v>45061</v>
       </c>
@@ -5445,20 +5454,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="20"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="39">
+        <v>13</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5471,7 +5488,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5484,7 +5501,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5497,7 +5514,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5510,7 +5527,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -5523,7 +5540,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5536,7 +5553,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5549,7 +5566,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5562,7 +5579,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5575,7 +5592,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5588,7 +5605,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5601,7 +5618,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5614,7 +5631,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5627,7 +5644,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5640,7 +5657,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5653,7 +5670,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5666,7 +5683,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5679,7 +5696,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5692,7 +5709,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5705,7 +5722,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5718,7 +5735,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5731,7 +5748,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5744,7 +5761,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5757,7 +5774,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5770,7 +5787,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5783,7 +5800,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5796,7 +5813,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5809,7 +5826,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5822,7 +5839,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5835,7 +5852,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5848,7 +5865,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5861,7 +5878,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5874,7 +5891,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5887,7 +5904,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5900,7 +5917,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -5913,7 +5930,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5926,7 +5943,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5939,7 +5956,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5952,7 +5969,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5965,7 +5982,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5978,7 +5995,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -5991,7 +6008,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6004,7 +6021,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6017,7 +6034,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6030,7 +6047,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6043,7 +6060,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6056,7 +6073,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6069,7 +6086,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6082,7 +6099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6095,7 +6112,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6108,7 +6125,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6121,7 +6138,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6134,7 +6151,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6147,7 +6164,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6160,7 +6177,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6173,7 +6190,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6186,7 +6203,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6199,7 +6216,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6212,7 +6229,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6225,7 +6242,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6238,7 +6255,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6251,7 +6268,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6264,7 +6281,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6277,7 +6294,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6290,7 +6307,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6303,7 +6320,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6316,7 +6333,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6329,7 +6346,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6345,7 +6362,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6361,7 +6378,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6377,7 +6394,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6393,7 +6410,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6409,7 +6426,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6425,7 +6442,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6441,7 +6458,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6457,7 +6474,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6473,7 +6490,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6489,7 +6506,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6505,7 +6522,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6521,7 +6538,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6537,7 +6554,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6553,7 +6570,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6569,7 +6586,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6585,7 +6602,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6601,7 +6618,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6617,7 +6634,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6633,7 +6650,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6649,7 +6666,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6665,7 +6682,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6681,7 +6698,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6697,7 +6714,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6713,7 +6730,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6729,7 +6746,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6745,7 +6762,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6761,7 +6778,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6777,7 +6794,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6793,7 +6810,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6809,7 +6826,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6825,7 +6842,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6841,7 +6858,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6857,7 +6874,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6873,7 +6890,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6889,7 +6906,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6905,7 +6922,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6921,7 +6938,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6937,7 +6954,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6953,7 +6970,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6969,7 +6986,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -6985,7 +7002,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7001,7 +7018,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -7032,10 +7049,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7058,28 +7075,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7092,7 +7109,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7121,7 +7138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>61.253999999999998</v>
       </c>
@@ -7135,27 +7152,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="47">
+        <v>12</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>11</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7176,7 +7195,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7203,7 +7222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7229,7 +7248,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7255,7 +7274,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7281,7 +7300,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7307,7 +7326,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7333,7 +7352,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7359,7 +7378,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7385,7 +7404,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7405,7 +7424,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7425,7 +7444,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7445,7 +7464,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7466,7 +7485,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7487,7 +7506,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7508,7 +7527,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7529,7 +7548,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7550,7 +7569,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7571,7 +7590,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7592,7 +7611,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7613,7 +7632,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7634,7 +7653,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7655,7 +7674,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7676,7 +7695,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7697,7 +7716,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7718,7 +7737,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7739,7 +7758,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7760,7 +7779,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7781,7 +7800,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7802,7 +7821,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7823,7 +7842,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7844,7 +7863,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7865,7 +7884,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7874,7 +7893,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7883,7 +7902,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7892,7 +7911,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7901,7 +7920,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7910,7 +7929,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7919,7 +7938,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7928,7 +7947,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7937,7 +7956,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7946,7 +7965,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7955,7 +7974,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7964,7 +7983,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7973,7 +7992,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7982,7 +8001,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7991,7 +8010,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8000,7 +8019,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8009,7 +8028,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8018,7 +8037,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8027,7 +8046,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8036,7 +8055,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8045,7 +8064,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8054,7 +8073,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8063,7 +8082,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8072,7 +8091,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8081,7 +8100,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8090,7 +8109,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8099,7 +8118,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8108,7 +8127,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8117,7 +8136,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8126,7 +8145,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
